--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_3_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_3_square_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.31000000000052</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.890221478286549e-13</v>
+        <v>1.378129832474428e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>3.890221478286549e-13</v>
+        <v>1.378129832474428e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.65905800062665</v>
+        <v>57.73507357332018</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[43.059701514061175, 66.25841448719213]</t>
+          <t>[43.597460256418174, 71.87268689022218]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.603250948141067e-12</v>
+        <v>1.624487211415726e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>2.603250948141067e-12</v>
+        <v>1.624487211415726e-10</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4025528763774249, 1.9057108589343494]</t>
+          <t>[1.2893423303021159, 1.8679740102425804]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.486899575160351e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.486899575160351e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>50.55723095652393</v>
+        <v>54.28129269769806</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.102638033789404, 58.01182387925846]</t>
+          <t>[44.746816287618216, 63.81576910777791]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>18.64680680680719</v>
+        <v>18.99575575575615</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.63339339339375</v>
+        <v>17.82756756756793</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.66022022022062</v>
+        <v>20.16394394394437</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.31000000000052</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.086531030760398e-12</v>
+        <v>5.062616992290714e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>3.086531030760398e-12</v>
+        <v>5.062616992290714e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>52.48955711128217</v>
+        <v>59.32042885740093</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.538294101273976, 66.44082012129036]</t>
+          <t>[46.28726237136905, 72.35359534343281]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.428852369755873e-09</v>
+        <v>7.368994303647014e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>1.428852369755873e-09</v>
+        <v>7.368994303647014e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.17613178422681</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.4654476241970409]</t>
+          <t>[1.0000264903318863, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.840192442870148e-10</v>
+        <v>1.318944953254686e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.840192442870148e-10</v>
+        <v>1.318944953254686e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>53.60422491404157</v>
+        <v>50.68093369882483</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.099377630277594, 61.10907219780555]</t>
+          <t>[43.17999582223792, 58.18187157541174]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.57229229229271</v>
+        <v>20.36710710710753</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.40686686686726</v>
+        <v>19.40208208208249</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.73771771771816</v>
+        <v>21.33213213213257</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31000000000052</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.080713627592104e-12</v>
+        <v>2.964295475749168e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>5.080713627592104e-12</v>
+        <v>2.964295475749168e-14</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>62.05169491917988</v>
+        <v>59.56693893621589</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[44.652408581877495, 79.45098125648227]</t>
+          <t>[45.44691295923824, 73.68696491319355]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.459620533443399e-09</v>
+        <v>6.598077639807798e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>5.459620533443399e-09</v>
+        <v>6.598077639807798e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9622896416401163</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.698131700797731, 1.2264475824825016]</t>
+          <t>[0.7107106503616549, 1.1635528346628856]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.231644951640078e-09</v>
+        <v>1.123143800185744e-10</v>
       </c>
       <c r="S4" t="n">
-        <v>3.231644951640078e-09</v>
+        <v>1.123143800185744e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>53.94682960564423</v>
+        <v>55.69367738826798</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.02646637165044, 62.86719283963802]</t>
+          <t>[48.406208580995035, 62.98114619554092]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>21.43369369369413</v>
+        <v>21.58608608608654</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.36960960961003</v>
+        <v>20.67185185185228</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.49777777777824</v>
+        <v>22.50032032032079</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.31000000000052</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.836131495267182e-13</v>
+        <v>1.073317767996684e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>4.836131495267182e-13</v>
+        <v>1.073317767996684e-09</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>56.15201121124905</v>
+        <v>54.21100523322923</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[42.51328951364819, 69.7907329088499]</t>
+          <t>[36.90111363539084, 71.52089683106762]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.299433893819923e-10</v>
+        <v>1.089146637323068e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>1.299433893819923e-10</v>
+        <v>1.089146637323068e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5597632555945777</v>
+        <v>0.5094474573388856</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.30818426431611634, 0.8113422468730391]</t>
+          <t>[0.1823947686768852, 0.8365001460008861]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.055779202489674e-05</v>
+        <v>0.00300437383607588</v>
       </c>
       <c r="S5" t="n">
-        <v>5.055779202489674e-05</v>
+        <v>0.00300437383607588</v>
       </c>
       <c r="T5" t="n">
-        <v>53.13492830948832</v>
+        <v>58.52152969844411</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.79240521598752, 60.47745140298911]</t>
+          <t>[49.36974718924026, 67.67331220764795]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>23.05515515515563</v>
+        <v>23.31297297297345</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.0417417417422</v>
+        <v>21.99241241241287</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.06856856856906</v>
+        <v>24.63353353353404</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.24000000000019</v>
+        <v>22.94000000000015</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.150757432734963e-11</v>
+        <v>3.593569886106707e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>3.150757432734963e-11</v>
+        <v>3.593569886106707e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>54.00221598290852</v>
+        <v>63.67814158511832</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[40.28291697999832, 67.72151498581873]</t>
+          <t>[49.63807087110929, 77.71821229912734]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.389164587337291e-10</v>
+        <v>8.180789379252928e-12</v>
       </c>
       <c r="O6" t="n">
-        <v>4.389164587337291e-10</v>
+        <v>8.180789379252928e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1823947686768843</v>
+        <v>-0.03773684869176908</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.10692107129334616, 0.4717106086471148]</t>
+          <t>[-0.28931583997023136, 0.2138421425866932]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2106969762514432</v>
+        <v>0.7639559724542799</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2106969762514432</v>
+        <v>0.7639559724542799</v>
       </c>
       <c r="T6" t="n">
-        <v>58.33238747647689</v>
+        <v>55.78020463825701</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.96699038566403, 66.69778456728974]</t>
+          <t>[46.52591975987619, 65.03448951663783]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>22.56536536536555</v>
+        <v>0.1377777777777816</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.49525525525544</v>
+        <v>-0.7807407407407443</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.63547547547567</v>
+        <v>1.056296296296307</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.24000000000019</v>
+        <v>22.94000000000015</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.731770530952417e-13</v>
+        <v>1.156768014709542e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>4.731770530952417e-13</v>
+        <v>1.156768014709542e-10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>58.61413152030282</v>
+        <v>53.58559354557613</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[44.56161842493118, 72.66664461567446]</t>
+          <t>[38.62331752062666, 68.5478695705256]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9.057954386548772e-11</v>
+        <v>4.924323393495911e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>9.057954386548772e-11</v>
+        <v>4.924323393495911e-09</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.2327105669325773</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.044026323473730145, 0.5723422051585008]</t>
+          <t>[-0.08176317216550011, 0.5471843060306547]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02323088532976758</v>
+        <v>0.1430861536172205</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02323088532976758</v>
+        <v>0.1430861536172205</v>
       </c>
       <c r="T7" t="n">
-        <v>53.40158000461528</v>
+        <v>50.60863025496415</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.49284163053176, 61.310318378698796]</t>
+          <t>[41.89290110155701, 59.3243594083713]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>22.10010010010028</v>
+        <v>22.09037037037051</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.12304304304322</v>
+        <v>20.94222222222236</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.07715715715735</v>
+        <v>23.23851851851867</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.24000000000019</v>
+        <v>22.94000000000015</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.020739462542224e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.020739462542224e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>67.19099932284649</v>
+        <v>59.67992353629768</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[54.0383766301795, 80.34362201551349]</t>
+          <t>[44.6589920768879, 74.70085499570746]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.111644192837048e-13</v>
+        <v>3.420956851130086e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>2.111644192837048e-13</v>
+        <v>3.420956851130086e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5597632555945768</v>
+        <v>0.4842895582110396</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.35850006257180755, 0.7610264486173461]</t>
+          <t>[0.22013161736865516, 0.748447499053424]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.213421841672613e-06</v>
+        <v>0.0005983081947840141</v>
       </c>
       <c r="S8" t="n">
-        <v>1.213421841672613e-06</v>
+        <v>0.0005983081947840141</v>
       </c>
       <c r="T8" t="n">
-        <v>55.6161216405859</v>
+        <v>55.87995031025161</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.73395414544639, 62.4982891357254]</t>
+          <t>[47.77696305585222, 63.982937564650996]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>21.16956956956975</v>
+        <v>21.17185185185199</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.42514514514532</v>
+        <v>20.20740740740754</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.91399399399418</v>
+        <v>22.13629629629644</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_3_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_3_square_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.37000000000053</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.378129832474428e-10</v>
+        <v>1.210143096841421e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.378129832474428e-10</v>
+        <v>1.210143096841421e-14</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>57.73507357332018</v>
+        <v>57.71377174612013</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[43.597460256418174, 71.87268689022218]</t>
+          <t>[47.24115737448028, 68.18638611775998]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.624487211415726e-10</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.624487211415726e-10</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2893423303021159, 1.8679740102425804]</t>
+          <t>[1.4025528763774249, 1.8302371615508095]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.486899575160351e-14</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.486899575160351e-14</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.28129269769806</v>
+        <v>51.78397090843978</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.746816287618216, 63.81576910777791]</t>
+          <t>[44.67969414100981, 58.88824767586974]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.99575575575615</v>
+        <v>18.91023023023063</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.82756756756793</v>
+        <v>18.04372372372411</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.16394394394437</v>
+        <v>19.77673673673716</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.37000000000053</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.062616992290714e-14</v>
+        <v>5.452305273934144e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>5.062616992290714e-14</v>
+        <v>5.452305273934144e-12</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>59.32042885740093</v>
+        <v>54.69219399384381</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[46.28726237136905, 72.35359534343281]</t>
+          <t>[40.495468711060624, 68.88891927662699]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.368994303647014e-12</v>
+        <v>7.742022578582919e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>7.368994303647014e-12</v>
+        <v>7.742022578582919e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.239026532046425</v>
+        <v>1.188710733790732</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 1.478026573760963]</t>
+          <t>[0.8993948938205003, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.318944953254686e-13</v>
+        <v>1.374700353551361e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>1.318944953254686e-13</v>
+        <v>1.374700353551361e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>50.68093369882483</v>
+        <v>50.75507248309047</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.17999582223792, 58.18187157541174]</t>
+          <t>[42.77198085217603, 58.73816411400492]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.36710710710753</v>
+        <v>20.64324324324368</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.40208208208249</v>
+        <v>19.47091091091133</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.33213213213257</v>
+        <v>21.81557557557604</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.37000000000053</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.964295475749168e-14</v>
+        <v>6.908196237276343e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>2.964295475749168e-14</v>
+        <v>6.908196237276343e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.56693893621589</v>
+        <v>58.16791445041657</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[45.44691295923824, 73.68696491319355]</t>
+          <t>[40.900018296688486, 75.43581060414465]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.598077639807798e-11</v>
+        <v>2.12752455652776e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>6.598077639807798e-11</v>
+        <v>2.12752455652776e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9371317425122703</v>
+        <v>0.7861843477451931</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.7107106503616549, 1.1635528346628856]</t>
+          <t>[0.4842895582110387, 1.0880791372793475]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.123143800185744e-10</v>
+        <v>4.051210463096311e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>1.123143800185744e-10</v>
+        <v>4.051210463096311e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>55.69367738826798</v>
+        <v>55.20297781778413</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.406208580995035, 62.98114619554092]</t>
+          <t>[46.1923979313253, 64.21355770424296]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>21.58608608608654</v>
+        <v>22.27431431431479</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.67185185185228</v>
+        <v>21.05101101101146</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.50032032032079</v>
+        <v>23.49761761761812</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.37000000000053</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.073317767996684e-09</v>
+        <v>6.005196340197472e-12</v>
       </c>
       <c r="I5" t="n">
-        <v>1.073317767996684e-09</v>
+        <v>6.005196340197472e-12</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>54.21100523322923</v>
+        <v>56.76484801158043</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[36.90111363539084, 71.52089683106762]</t>
+          <t>[41.96624948857895, 71.5634465345819]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.089146637323068e-07</v>
+        <v>8.667297990427869e-10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.089146637323068e-07</v>
+        <v>8.667297990427869e-10</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5094474573388856</v>
+        <v>0.5094474573388847</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 0.8365001460008861]</t>
+          <t>[0.2327105669325764, 0.7861843477451931]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.00300437383607588</v>
+        <v>0.0005714058083974294</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00300437383607588</v>
+        <v>0.0005714058083974294</v>
       </c>
       <c r="T5" t="n">
-        <v>58.52152969844411</v>
+        <v>54.83042535013711</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.36974718924026, 67.67331220764795]</t>
+          <t>[46.838158951066255, 62.822691749207955]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23.31297297297345</v>
+        <v>23.39567567567617</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.99241241241287</v>
+        <v>22.27431431431479</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.63353353353404</v>
+        <v>24.51703703703756</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.94000000000015</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.593569886106707e-12</v>
+        <v>2.454125791473416e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>3.593569886106707e-12</v>
+        <v>2.454125791473416e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>63.67814158511832</v>
+        <v>53.9898191412483</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.63807087110929, 77.71821229912734]</t>
+          <t>[40.86409966413507, 67.11553861836153]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.180789379252928e-12</v>
+        <v>1.333084753696312e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>8.180789379252928e-12</v>
+        <v>1.333084753696312e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.03773684869176908</v>
+        <v>0.1069210712933462</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.28931583997023136, 0.2138421425866932]</t>
+          <t>[-0.16981581911296217, 0.3836579616996545]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.7639559724542799</v>
+        <v>0.4405376480218617</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7639559724542799</v>
+        <v>0.4405376480218617</v>
       </c>
       <c r="T6" t="n">
-        <v>55.78020463825701</v>
+        <v>53.23127104385176</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.52591975987619, 65.03448951663783]</t>
+          <t>[44.905482085116745, 61.557060002586766]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1377777777777816</v>
+        <v>22.65775775775792</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.7807407407407443</v>
+        <v>21.6425425425427</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.056296296296307</v>
+        <v>23.67297297297315</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.94000000000015</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.156768014709542e-10</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>1.156768014709542e-10</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.58559354557613</v>
+        <v>67.77469621736525</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[38.62331752062666, 68.5478695705256]</t>
+          <t>[54.850642256653146, 80.69875017807735]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.924323393495911e-09</v>
+        <v>9.126033262418787e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>4.924323393495911e-09</v>
+        <v>9.126033262418787e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2327105669325773</v>
+        <v>0.2452895164964994</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.08176317216550011, 0.5471843060306547]</t>
+          <t>[0.044026323473729256, 0.4465527095192696]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1430861536172205</v>
+        <v>0.01803227364866289</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1430861536172205</v>
+        <v>0.01803227364866289</v>
       </c>
       <c r="T7" t="n">
-        <v>50.60863025496415</v>
+        <v>56.47202707895811</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.89290110155701, 59.3243594083713]</t>
+          <t>[48.98535619093163, 63.95869796698458]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09037037037051</v>
+        <v>22.15015015015031</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.94222222222236</v>
+        <v>21.41181181181197</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.23851851851867</v>
+        <v>22.88848848848865</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.94000000000015</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>6.020739462542224e-13</v>
+        <v>4.537636932866462e-11</v>
       </c>
       <c r="I8" t="n">
-        <v>6.020739462542224e-13</v>
+        <v>4.537636932866462e-11</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>59.67992353629768</v>
+        <v>57.73478590015228</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[44.6589920768879, 74.70085499570746]</t>
+          <t>[40.711348579550176, 74.75822322075439]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.420956851130086e-10</v>
+        <v>1.816637507090491e-08</v>
       </c>
       <c r="O8" t="n">
-        <v>3.420956851130086e-10</v>
+        <v>1.816637507090491e-08</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4842895582110396</v>
+        <v>0.5849211547224229</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.22013161736865516, 0.748447499053424]</t>
+          <t>[0.2830263651882676, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0005983081947840141</v>
+        <v>0.0003156624976066169</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0005983081947840141</v>
+        <v>0.0003156624976066169</v>
       </c>
       <c r="T8" t="n">
-        <v>55.87995031025161</v>
+        <v>55.77506102793173</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.77696305585222, 63.982937564650996]</t>
+          <t>[46.79774266301297, 64.75237939285049]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>21.17185185185199</v>
+        <v>20.90420420420436</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.20740740740754</v>
+        <v>19.79669669669684</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.13629629629644</v>
+        <v>22.01171171171188</v>
       </c>
     </row>
   </sheetData>
